--- a/my-app/notebook/AI_responses/experiment 2 - full scale/combined_labelled.xlsx
+++ b/my-app/notebook/AI_responses/experiment 2 - full scale/combined_labelled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WTX\workspace\fermi-aid-tree\my-app\notebook\AI_responses\experiment 2 - full scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5729F8FE-0172-4B18-AB11-C796867A66E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9BBEE9-F72A-42AA-B609-23FEC37E8987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,9 +1560,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1918,15 +1921,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCE3D3A-816E-4034-9674-E53A7A8C55EE}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
@@ -1938,8 +1941,8 @@
     <col min="15" max="15" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1985,8 +1988,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -2031,9 +2034,13 @@
       <c r="O2" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="P2">
+        <f>_xlfn.STDEV.S(I2,K2,M2,O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -2078,9 +2085,13 @@
       <c r="O3" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P3">
+        <f t="shared" ref="P3:P21" si="0">_xlfn.STDEV.S(I3,K3,M3,O3)</f>
+        <v>1.1547005383792495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -2125,9 +2136,13 @@
       <c r="O4" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>5.5578593001262631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5">
@@ -2172,9 +2187,13 @@
       <c r="O5" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6">
@@ -2219,9 +2238,13 @@
       <c r="O6" s="1">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1.322289680818846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7">
@@ -2266,9 +2289,13 @@
       <c r="O7" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="P7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B8">
@@ -2289,7 +2316,7 @@
       <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="1">
@@ -2313,9 +2340,13 @@
       <c r="O8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.57735026918962629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B9">
@@ -2360,9 +2391,13 @@
       <c r="O9" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.36981256513716987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B10">
@@ -2407,9 +2442,13 @@
       <c r="O10" s="1">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.39254511418009902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B11">
@@ -2454,9 +2493,13 @@
       <c r="O11" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B12">
@@ -2501,9 +2544,13 @@
       <c r="O12" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1.7677669529663689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B13">
@@ -2548,9 +2595,13 @@
       <c r="O13" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>4.9328828623162471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B14">
@@ -2595,9 +2646,13 @@
       <c r="O14" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>4.4575778176045349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B15">
@@ -2642,9 +2697,13 @@
       <c r="O15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2.0816659994661331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B16">
@@ -2689,9 +2748,13 @@
       <c r="O16" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B17">
@@ -2736,9 +2799,13 @@
       <c r="O17" s="1">
         <v>-25</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B18">
@@ -2783,9 +2850,13 @@
       <c r="O18" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B19">
@@ -2830,9 +2901,13 @@
       <c r="O19" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B20">
@@ -2877,9 +2952,13 @@
       <c r="O20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B21">
@@ -2924,8 +3003,12 @@
       <c r="O21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>4.2623106018527821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I22">
         <f>MAX(0, 1-ABS((I2-$B2))/3)</f>
         <v>1</v>
@@ -2943,309 +3026,309 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I23">
-        <f t="shared" ref="I23:I41" si="0">MAX(0, 1-ABS((I3-$B3))/3)</f>
+        <f t="shared" ref="I23:I41" si="1">MAX(0, 1-ABS((I3-$B3))/3)</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K41" si="1">MAX(0, 1-ABS((K3-$B3))/3)</f>
+        <f t="shared" ref="K23:K41" si="2">MAX(0, 1-ABS((K3-$B3))/3)</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M41" si="2">MAX(0, 1-ABS((M3-$B3))/3)</f>
+        <f t="shared" ref="M23:M41" si="3">MAX(0, 1-ABS((M3-$B3))/3)</f>
         <v>0</v>
       </c>
       <c r="O23" t="e">
-        <f t="shared" ref="O23:O41" si="3">MAX(0, 1-ABS((O3-$B3))/3)</f>
+        <f t="shared" ref="O23:O41" si="4">MAX(0, 1-ABS((O3-$B3))/3)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.99333333333333351</v>
+      </c>
+      <c r="O24" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O25" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I26" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M24">
+      <c r="K26" t="e">
         <f t="shared" si="2"/>
-        <v>0.99333333333333351</v>
-      </c>
-      <c r="O24" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>0.62333333333333329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K25">
+      <c r="O27" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I28">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M25">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="K28" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O25" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="3"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O29" t="e">
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I26" t="e">
-        <f t="shared" si="0"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0.39</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>0.55333333333333323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" t="e">
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I32">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M26">
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="O32" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="M34">
         <f t="shared" si="3"/>
-        <v>0.62333333333333329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="K27" t="e">
+        <v>0</v>
+      </c>
+      <c r="O34" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I35">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M27" t="e">
+        <v>0</v>
+      </c>
+      <c r="K35" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O27" t="e">
+      <c r="M35">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="K36" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="K28" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="O28">
+      <c r="M36">
         <f t="shared" si="3"/>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O29" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>0.39</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="3"/>
-        <v>0.55333333333333323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="K31" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K32" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="O32" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="K34">
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="K37">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O34" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O35">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="K36" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37">
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="M37">
+      <c r="K38" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="K38" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="2"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="O38" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="6:15" x14ac:dyDescent="0.25">
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="K39" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="O39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3257,19 +3340,19 @@
         <v>80</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40">
+      <c r="K40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3282,19 +3365,19 @@
         <v>57</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
